--- a/CAD/BOM.xlsx
+++ b/CAD/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B2AA6-D60A-4BE3-A643-27B6A6CD21B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC38B8-65F0-41AA-8170-C1B6108CF65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7530" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Screws</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>1738-1328-ND</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -477,6 +483,12 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>

--- a/CAD/BOM.xlsx
+++ b/CAD/BOM.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC38B8-65F0-41AA-8170-C1B6108CF65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBED62F-7FD2-4F8E-99FA-71FD4E595F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7530" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase" sheetId="1" r:id="rId1"/>
     <sheet name="3D Print" sheetId="2" r:id="rId2"/>
     <sheet name="Laser Cut" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -50,21 +61,12 @@
     <t>Motor Shaft</t>
   </si>
   <si>
-    <t>Spider Coupler</t>
-  </si>
-  <si>
     <t>Ball Bearing</t>
   </si>
   <si>
-    <t>Wheel</t>
-  </si>
-  <si>
     <t>Ball Caster</t>
   </si>
   <si>
-    <t>Heat Set Inserts</t>
-  </si>
-  <si>
     <t>Plastic Standoffs</t>
   </si>
   <si>
@@ -80,26 +82,92 @@
     <t>Motor Mount</t>
   </si>
   <si>
-    <t>Hex Standoff __</t>
-  </si>
-  <si>
-    <t>Hex bolts???</t>
-  </si>
-  <si>
-    <t>Screws</t>
-  </si>
-  <si>
     <t>DigiKey</t>
   </si>
   <si>
     <t>1738-1328-ND</t>
+  </si>
+  <si>
+    <t>Shaft Coupling</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-1462.html</t>
+  </si>
+  <si>
+    <t>DFRobot</t>
+  </si>
+  <si>
+    <t>Room36</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Aluminum-Coupling-Flexible-Coupler-Connector/dp/B06Y6424Z5?th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NONMON-Inline-Wheels-Skates-Replacement/dp/B088RDVCT1/ref=sr_1_9?crid=1OHCNY2EIAFPM&amp;keywords=80%2Bmm%2Bskate%2Bwheel&amp;qid=1701125356&amp;sprefix=80%2Bmm%2Bskatewheel%2Caps%2C125&amp;sr=8-9&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>M3 Heat Set Inserts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Threaded-Inserts-Printing-Embedment-Automotive/dp/B0BQJ6CRNJ/ref=sr_1_3?crid=5P7BZY47HOX3&amp;keywords=m3+heat+set+inserts&amp;qid=1701125622&amp;sprefix=m3+heat+s%2Caps%2C127&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>M3 Screws</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Metric-Assortment-Button-Socket-Threaded/dp/B0C7CZ6LJN/ref=sr_1_4?crid=2HO8N1AX3QFO7&amp;keywords=m3+bolts&amp;qid=1701125722&amp;sprefix=m3%2Caps%2C252&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-500pcs-Spacers-Washers-Height/dp/B07FKJNQ2R/ref=sr_1_5?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=10VDR2XAKEQI8&amp;keywords=Spacers&amp;pd_rd_r=ff50aa0e-bcc5-4ca2-9e34-4dafaf53d1b7&amp;pd_rd_w=jv4pl&amp;pd_rd_wg=xqcOH&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=FYYYZSEK9MT5WGV9X1CK&amp;pid=bpmk5Iy&amp;qid=1701126121&amp;refinements=p_n_feature_twenty-three_browse-bin%3A19047481011%2Cp_n_material_browse%3A17548927011%7C17548928011%2Cp_n_feature_twenty_browse-bin%3A17420943011&amp;s=industrial&amp;sprefix=pcb%2Bstandoff%2Caps%2C124&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>Hex Standoff 3 Inches</t>
+  </si>
+  <si>
+    <t>Hex Standoff Bolts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Standoff-Brass-Female-Plated-Length/dp/B00PKGCQZG/ref=sr_1_3?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=10VDR2XAKEQI8&amp;keywords=Spacers&amp;pd_rd_r=9490d230-b7c2-4164-b95d-593ae935ff5c&amp;pd_rd_w=RvT9c&amp;pd_rd_wg=tnYmu&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=4NMH6EWWFZNESEGGZP2H&amp;pid=bpmk5Iy&amp;qid=1701126928&amp;refinements=p_n_feature_twenty-three_browse-bin%3A19047482011%2Cp_n_feature_twenty-eight_browse-bin%3A19043709011%7C19043720011&amp;s=industrial&amp;sprefix=pcb%2Bstandoff%2Caps%2C124&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/10-10-32-Socket-Thermal-MonsterBolts/dp/B07CF7YD4W/ref=sr_1_4?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=1TDVRIRN163RI&amp;keywords=Screws&amp;pd_rd_r=97bcc176-c819-4481-a510-9b05f5075494&amp;pd_rd_w=ZsYhC&amp;pd_rd_wg=kwwLA&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=236WKXS83M80S8024RAW&amp;pid=rK5Vji9&amp;qid=1701127003&amp;refinements=p_n_feature_fourteen_browse-bin%3A11433964011%2Cp_n_feature_twenty-eight_browse-bin%3A19043652011&amp;s=industrial&amp;sprefix=10-32%2Bscrew%2Cindustrial%2C139&amp;sr=1-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +193,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,112 +515,217 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="3">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>19</v>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM(F2:F12)</f>
+        <v>95.5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{31C23CB5-34AA-4098-BF96-69D3BD4C1292}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{48F9A34E-5952-4A05-A2AC-54EA8590386B}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{16E01F94-50EE-4680-A5BC-78B4B02B4B7E}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{C9F3E123-0834-4D93-91A1-6A0551EC7F1C}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{8F739283-135E-4CF3-B85C-5EB4771E9E1D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -564,10 +745,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -575,7 +756,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -583,7 +764,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -606,10 +787,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>

--- a/CAD/BOM.xlsx
+++ b/CAD/BOM.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBED62F-7FD2-4F8E-99FA-71FD4E595F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402CBD6-779D-41BF-88AC-940FD9851DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7530" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Purchase" sheetId="1" r:id="rId1"/>
-    <sheet name="3D Print" sheetId="2" r:id="rId2"/>
-    <sheet name="Laser Cut" sheetId="3" r:id="rId3"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,111 +36,464 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Supplier P/N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Supplier URL</t>
-  </si>
-  <si>
     <t>DC Motor with Encoder</t>
   </si>
   <si>
     <t>Motor Shaft</t>
   </si>
   <si>
-    <t>Ball Bearing</t>
-  </si>
-  <si>
     <t>Ball Caster</t>
   </si>
   <si>
-    <t>Plastic Standoffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Bearing Block</t>
-  </si>
-  <si>
-    <t>Motor Mount</t>
-  </si>
-  <si>
-    <t>DigiKey</t>
-  </si>
-  <si>
-    <t>1738-1328-ND</t>
-  </si>
-  <si>
-    <t>Shaft Coupling</t>
-  </si>
-  <si>
     <t>https://www.dfrobot.com/product-1462.html</t>
   </si>
   <si>
-    <t>DFRobot</t>
-  </si>
-  <si>
-    <t>Room36</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Aluminum-Coupling-Flexible-Coupler-Connector/dp/B06Y6424Z5?th=1</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/NONMON-Inline-Wheels-Skates-Replacement/dp/B088RDVCT1/ref=sr_1_9?crid=1OHCNY2EIAFPM&amp;keywords=80%2Bmm%2Bskate%2Bwheel&amp;qid=1701125356&amp;sprefix=80%2Bmm%2Bskatewheel%2Caps%2C125&amp;sr=8-9&amp;th=1&amp;psc=1</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>Wheels</t>
   </si>
   <si>
-    <t>M3 Heat Set Inserts</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Threaded-Inserts-Printing-Embedment-Automotive/dp/B0BQJ6CRNJ/ref=sr_1_3?crid=5P7BZY47HOX3&amp;keywords=m3+heat+set+inserts&amp;qid=1701125622&amp;sprefix=m3+heat+s%2Caps%2C127&amp;sr=8-3</t>
   </si>
   <si>
-    <t>M3 Screws</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Metric-Assortment-Button-Socket-Threaded/dp/B0C7CZ6LJN/ref=sr_1_4?crid=2HO8N1AX3QFO7&amp;keywords=m3+bolts&amp;qid=1701125722&amp;sprefix=m3%2Caps%2C252&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/uxcell-500pcs-Spacers-Washers-Height/dp/B07FKJNQ2R/ref=sr_1_5?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=10VDR2XAKEQI8&amp;keywords=Spacers&amp;pd_rd_r=ff50aa0e-bcc5-4ca2-9e34-4dafaf53d1b7&amp;pd_rd_w=jv4pl&amp;pd_rd_wg=xqcOH&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=FYYYZSEK9MT5WGV9X1CK&amp;pid=bpmk5Iy&amp;qid=1701126121&amp;refinements=p_n_feature_twenty-three_browse-bin%3A19047481011%2Cp_n_material_browse%3A17548927011%7C17548928011%2Cp_n_feature_twenty_browse-bin%3A17420943011&amp;s=industrial&amp;sprefix=pcb%2Bstandoff%2Caps%2C124&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>Hex Standoff 3 Inches</t>
-  </si>
-  <si>
-    <t>Hex Standoff Bolts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Standoff-Brass-Female-Plated-Length/dp/B00PKGCQZG/ref=sr_1_3?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=10VDR2XAKEQI8&amp;keywords=Spacers&amp;pd_rd_r=9490d230-b7c2-4164-b95d-593ae935ff5c&amp;pd_rd_w=RvT9c&amp;pd_rd_wg=tnYmu&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=4NMH6EWWFZNESEGGZP2H&amp;pid=bpmk5Iy&amp;qid=1701126928&amp;refinements=p_n_feature_twenty-three_browse-bin%3A19047482011%2Cp_n_feature_twenty-eight_browse-bin%3A19043709011%7C19043720011&amp;s=industrial&amp;sprefix=pcb%2Bstandoff%2Caps%2C124&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/10-10-32-Socket-Thermal-MonsterBolts/dp/B07CF7YD4W/ref=sr_1_4?content-id=amzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf%3Aamzn1.sym.918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;crid=1TDVRIRN163RI&amp;keywords=Screws&amp;pd_rd_r=97bcc176-c819-4481-a510-9b05f5075494&amp;pd_rd_w=ZsYhC&amp;pd_rd_wg=kwwLA&amp;pf_rd_p=918a99dd-4826-4c0a-be33-a6705d69c4cf&amp;pf_rd_r=236WKXS83M80S8024RAW&amp;pid=rK5Vji9&amp;qid=1701127003&amp;refinements=p_n_feature_fourteen_browse-bin%3A11433964011%2Cp_n_feature_twenty-eight_browse-bin%3A19043652011&amp;s=industrial&amp;sprefix=10-32%2Bscrew%2Cindustrial%2C139&amp;sr=1-4&amp;th=1</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
+    <t>This page includes the components of the mobile robot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is listed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per robot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unless otherwise noted</t>
+    </r>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Item Link</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <t>Nvidia Jetson Orin Nano</t>
+  </si>
+  <si>
+    <t>NVIDIA Jetson Orin Nano Super Developer Kit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BZJTQ5YP?utm_source=nvidia&amp;th=1</t>
+  </si>
+  <si>
+    <t>7.2 NiMh Battery</t>
+  </si>
+  <si>
+    <t>7.2V 6200mAh NIMH Battery with Tamiya Connector</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08P35DRNP/?coliid=IT2O6VDRELJUT&amp;colid=PVITX9DKOJI6&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>*May want multiple per robot so one can charge while using other battery pack</t>
+  </si>
+  <si>
+    <t>Tamiya to Lead Converter</t>
+  </si>
+  <si>
+    <t>Tamiya Style Plug Male to Wire Lead</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08MFPJHWB/?coliid=I37PSX0JA3R3FS&amp;colid=PVITX9DKOJI6&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>NiMh Battery Charger</t>
+  </si>
+  <si>
+    <t>7.2V Ni-MH Battery Charger with Tamiya Connector</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07ZNZC6KW/?coliid=I3VPMDBINFVX8Q&amp;colid=PVITX9DKOJI6&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Battery for Jetson</t>
+  </si>
+  <si>
+    <t>12 V &gt;=6000mAh, &gt;=2.5A, DC Lithium Ion Battery with barrel jack output</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B00ME3ZH7C/?coliid=I3HMDU7MR6U9B&amp;colid=PVITX9DKOJI6&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Battery for MCU</t>
+  </si>
+  <si>
+    <t>5V &gt;=2.4A, &gt;=5000mAh Small Battery Pack with usb-a as output</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B083VRD7CX/?coliid=I3LSGKP9XGV86P&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>DC Power Size Adapter</t>
+  </si>
+  <si>
+    <t>5.5mm x 2.1mm Female to 5.5mm x 2.5mm Male Barrel Jack Adapter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07FJMX1YR/?coliid=I3FZIH2YKIM1T5&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>*Only necessary if Battery for Jetson DC Output size is 5.5mm x2.1 mm</t>
+  </si>
+  <si>
+    <t>Memory for Jetson</t>
+  </si>
+  <si>
+    <t>&gt;= 1 TB NVME M.2 PCIe SSD Memory</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07ZGJVTZK/?coliid=I2I1D18UDB0TJN&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>Micro SD Card</t>
+  </si>
+  <si>
+    <t>&gt;= 128 GB microSD UHS-I Memory Card</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B09X7BK27V/?coliid=I3JG5TEYVAKUUH&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>WiFi Card</t>
+  </si>
+  <si>
+    <t>WiFi Card that Supports Roaming (M.2 Slot (Key-E, Type 2230))</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B079QJQF4Y/?coliid=I2ZE4T1A5KEUOC&amp;colid=PVITX9DKOJI6&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>DisplayPort Adapter</t>
+  </si>
+  <si>
+    <t>DisplayPort to HDMI Adapter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B081GMCNNF/?coliid=I151P7LK9DALH9&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>Multi USB port</t>
+  </si>
+  <si>
+    <t>USB-A Multi Port Splitter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07L32B9C2/?coliid=I2CL68SYM7HHD1&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>Short (1ft) Micro-USB to USB</t>
+  </si>
+  <si>
+    <t>1 ft Long USB-A to Micro USB 2.0 Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SUNGUY-3-Pack-Braided-Charging-Galaxy/dp/B07G934SJ9/ref=sr_1_2_sspa?crid=2LPHDM7OBRRI1&amp;dib=eyJ2IjoiMSJ9.BTH-JaqRBvQbWEP_82nsg3yEMXYNI64nU1zKdoVJWoyhgI-ZwZ9ptQ1mlBhCB-frVDwv6FuH8_VCG-Bi1_25SAd1t3MvZAbQ4IyOcjlHFjzitkMHkLeHXplhgpHxGtHpQMYTnw5wSqQC9yZlL1-tQsxd6gBebVmUe3Kvkck6t4uXWcO8pS3VkZtrI9qCCcRLvu8foY1sH9DkleNTzmS_6x2wIFTDaM66-ofrCd9nbrM.gcgwnXtJzrAW8tmjRYnm-vs6X-rgsqsN5WFn7ug5Uos&amp;dib_tag=se&amp;keywords=usb%2Bto%2Bmicro%2Busb%2Bcable&amp;qid=1747266882&amp;sprefix=usb%2Bto%2Bmi%2Caps%2C170&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>Long (3ft) Micro-USB to USB</t>
+  </si>
+  <si>
+    <t>3 ft Long USB-A to Micro USB 2.0 Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D7C6YVZS/?coliid=I2B4FQC14U1WUB&amp;colid=PVITX9DKOJI6&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>Long (3ft) HDMI Cable</t>
+  </si>
+  <si>
+    <t>3 ft long HDMI Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Soonsoonic-Cables-HDCP2-2-Ethernet-Braided-Monitor/dp/B095WTCQYQ/ref=sr_1_3?crid=1B7ZMD0IZODHY&amp;dib=eyJ2IjoiMSJ9.UGCUCqmFvcG-liQOQEQrnfzk--0JHYmhh417z59LGcU8HmSI9TaMqtS0y6RxYANV2Q6yg1N4zrG2oHRq2AqOIBAFopqbKR0eGv-ft2q8sq1TnF0avHER7gtiuI56pevI2Z7_oaY8kK70VgLGNZNQcYdF6UGqK3o6w-bTft_FNvsv2DhZXQZhXmAWeexBgWcHXWlpZ0A3wHa_TAJ-Hg6TuOxlGIkX8HYRIB1Qou4UmXY.xnNnEEdcioEBQlXNR5Vfz_1pmG7zgTCiokm6FGxJCNw&amp;dib_tag=se&amp;keywords=3%2Bft%2Bhdmi%2Bcable&amp;qid=1747259235&amp;sprefix=3%2Bft%2Bhdmi%2Bcabl%2Caps%2C220&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>*Only needed if Touch screen doesn't come with HDMI Cable</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>RGB-D Camera</t>
+  </si>
+  <si>
+    <t>Orbbec Astra Pro Plus</t>
+  </si>
+  <si>
+    <t>https://store.orbbec.com/products/astra-pro-plus</t>
+  </si>
+  <si>
+    <t>LiDAR Sensor</t>
+  </si>
+  <si>
+    <t>RPLiDAR A2M12 LiDAR Sensor</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-1461.html?srsltid=AfmBOorUHSD3MrcxR8V3P-EEFKiGIse_Qr8Jluo6WUNgsaTX-FV5I0le5fQ&amp;gQT=1</t>
+  </si>
+  <si>
+    <t>USB Camera</t>
+  </si>
+  <si>
+    <t>Mini USB Camera for Facial Recognition</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B09BR1RNSN/?coliid=I192IBMJAURNTI&amp;colid=3AQOJEVE8NOMZ&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Touch Screen/Monitor</t>
+  </si>
+  <si>
+    <t>Touch Screen Monitor for User Interaction</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BKGCB18T/?coliid=I7U5SC36TQYMS&amp;colid=3OLRW5V2Y7BAF&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>12 V DC Motors with Optical Encoder</t>
+  </si>
+  <si>
+    <t>D Axle 80x6mm Shafts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Accuracy-Industrial-Stainless-Machine-Equipment/dp/B08N5H4DGD/ref=sr_1_4?crid=1BFJQ1L0GG2SN&amp;keywords=d+shaft&amp;qid=1701370966&amp;sprefix=6+mm+d+shaft%2Caps%2C183&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Spider Coupler</t>
+  </si>
+  <si>
+    <t>4mm to 6mm Flexible Coupler Shaft</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Aopin-Flexible-Couplings-Coupler-Connector/dp/B08XJN9KMP/ref=sr_1_10?crid=276SZOMOVBU65&amp;keywords=4mm%2Bflexible%2Bshaft%2Bcoupling&amp;qid=1701370764&amp;sprefix=4mm%2Bflexible%2Bshaft%2Bcoupling%2Caps%2C134&amp;sr=8-10&amp;th=1</t>
+  </si>
+  <si>
+    <t>*May change if different motor is purchased</t>
+  </si>
+  <si>
+    <t>Bearings</t>
+  </si>
+  <si>
+    <t>Flanged Ball Bearing 6mmx15mmx5mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-Bearing-6x15x5mm-Shielded-Bearings/dp/B07Z3F1MR5/ref=sr_1_5?crid=1DF2NP748L1KB&amp;keywords=6mm%2Bflange%2Bball%2Bbearing&amp;qid=1701371657&amp;sprefix=6mm%2Bflange%2Bball%2Bbearing%2Caps%2C128&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>Epoxy</t>
+  </si>
+  <si>
+    <t>Multi surface epoxy glue</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Gorilla-Epoxy-Minute-ounce-Syringe/dp/B001Z3C3AG/ref=asc_df_B001Z3C3AG?mcid=702e3a04afff30e9b2abda067abf1045&amp;hvocijid=4678568899908540080-B001Z3C3AG-&amp;hvexpln=73&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=721245378154&amp;hvpos=&amp;hvnetw=g&amp;hvrand=4678568899908540080&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9031967&amp;hvtargid=pla-2281435178098&amp;th=1</t>
+  </si>
+  <si>
+    <t>*1 epoxy container is good for many robots</t>
+  </si>
+  <si>
+    <t>80 mm wheel --- Without Bearings!</t>
+  </si>
+  <si>
+    <t>*Can do bigger wheel as well</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>M3 Screws Assorted length with button head with nuts and washers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HELIFOUNER-Pieces-Button-Washers-Stainless/dp/B09GR7V65C/ref=sr_1_2_sspa?crid=VSRKXXLILN84&amp;dib=eyJ2IjoiMSJ9.WYp-5mRGbQ37j0m7Wt6uHergCZkzO1hy4Y0sD1PlSFZAuTWSnIz5tPc2JbovYvRo0ISID5mPfJioeqIaBPYDNhZBlkfjDo3cLDpyqafupXGY1CnYow3KQXfaCQ38OYAWCyosLmQFAk9JUtKtotIdiOK4O93m5febuakrduGs1z7O_Jf3VCVZ39SHXWHnV60vqy7DGJ-nTC_6gY-tWM85xSCVpTuLoTDuy5HkQGG0vJI.k93zkW2B8LlYiF_gE_eOO5lTPzO6EkZL9uF9VuMWvgk&amp;dib_tag=se&amp;keywords=m3%2Bscrew%2Bset%2Bbutton%2Bhead&amp;qid=1747259526&amp;sprefix=m3%2Bscrew%2Bset%2Bbutton%2Bhea%2Caps%2C149&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>*1 set is enough for several robots</t>
+  </si>
+  <si>
+    <t>M3 Screws 8 mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Socket-Screws-Bolts-Thread-100pcs/dp/B07CMQ1SQH/ref=sr_1_3?crid=1WPLUYBASRAV7&amp;dib=eyJ2IjoiMSJ9.lpA37gEsAWAGdXyeclBlVl432s4NFIHfIqdKrFwhdtsYHURkxxqgsD-UEAaJY_It_KJWaEBIe49uhQW-o_DshimzUqJQ8wndLftTrB6oj2p092oQkXxsTdRN6GnLaC4YY4a_oIIGgtMPi12nICSGaEQQqmrKW4ykifWQJ4Mn3k89yDvMOLadK0L5upxZonIeZmtYsNXT2fHXvv5b73dCoGCCX8g5f9KapImXz5NjmOg.-cUyagWtVwvI0SVnTxCl6fuV66W4KS6887yDxr6upYw&amp;dib_tag=se&amp;keywords=m3%2B8%2Bmm%2Bscrew&amp;qid=1747259437&amp;sprefix=m3%2B8%2Bmm%2Bscre%2Caps%2C158&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>*screws/robot</t>
+  </si>
+  <si>
+    <t>M6 Screw 12 mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BNUOK-M6-1-0-Socket-Stainless-Spanner/dp/B0DHKZJNLQ/ref=sr_1_4?crid=303DGFOWVXQ8X&amp;dib=eyJ2IjoiMSJ9.nMhMSOqdWcmGo8uP0Zt_LqbbgwrhkhoaAxBURzJYhlKNbvsySYKwbTS06vLZKGx_9k_TY4BafB-S7jIwDfnR7fJyDsKS2jqhnlwtBhyTHToyck5h7Olc8KC7mkGHWzTrKIWM8HV4yLCCKN4QfZ8P_cLv7Z4zCnbrxOBksccVg7oX0dsJWM_8tglboGI0uAkm2jSNGCppodeuJ7-VVTrXR1KlWiKSssbRw6kCBbRd60M.AfngxHHTdqm6mfJWmt1i8NDkZPJ_9Q6gpWshQYpA-zQ&amp;dib_tag=se&amp;keywords=m6%2B12%2Bmm%2Bscrew&amp;qid=1747259388&amp;sprefix=m6%2B12%2Bmm%2Bscre%2Caps%2C193&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>*For mounting Orbbec Astra camera</t>
+  </si>
+  <si>
+    <t>Heat Set Inserts</t>
+  </si>
+  <si>
+    <t>M3*4.6x5.7 mm Heat Set Inserts</t>
+  </si>
+  <si>
+    <t>Metal ball caster</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-225.html</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Dupont connecting set</t>
+  </si>
+  <si>
+    <t>2.54mm Dupont Connector Kit: male/female crimps, dupont housings</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Taiss-Connector-Housing-Adaptor-Assortment/dp/B0B11SX39B/ref=sr_1_9?crid=36YV3SLCM8BX5&amp;dib=eyJ2IjoiMSJ9.KndysfC7_Dj4MXJ-V9DqKJ_onQgDzXqRTOr0kJw19bbBe9QgbZ2nf0gQjY2JBBS611Hp2S8e-P0heSnijJPUJaqCzT1tqATp3pncX0-X02Vfd_4MwtKhWSRds0n8XF8kDhAe7U55IHjm8R16nWIXRAdYsdDnkG9UJIvuT93xUfSlp_qndy265rAuOYdhsg8qtmpKjcaVXkgwYboDDw4boDpc1NwE-Tmb5VEAgzHzf7FSyc3GfI15vAzR1n2iUEVUul2vZ_zP9VbCKT9_o_yC_7vEHEcwqTlCKEiOfnExTK0.TLGXXXhjZV11wEZ5_pj-1IwJrZbbizQmKY2fecXHSts&amp;dib_tag=se&amp;keywords=dupont+connector+kit&amp;qid=1747061470&amp;sprefix=dupont+%2Caps%2C193&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>*1 set is enough for many robots</t>
+  </si>
+  <si>
+    <t>Wire Heat Shrink</t>
+  </si>
+  <si>
+    <t>Heat Shrink Tubing Kit (Only need a few per robot)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/900Pcs-Shrink-Tubing-Industrial-Heat-Shrink/dp/B0B1D19LVW/ref=sr_1_4?dib=eyJ2IjoiMSJ9.kcQadkLjE2sg4d-h3SscvI39CMjXZy_xYANqNSSvouZVyo1FaoCP9l3qJPOxIYWB_YVlH57QW92oGL1YIMbepuYQPdi4u3CCj8Z0R1nryx1cG7G_3l5fqCObg0EGw6_4B3iaODtFfxsBS6GiKeoUilde5O2o_afYb57rVEiqbLlV1rO-SmD5NDASRBnYzCjmw-TEzrdC1BsIXTH2NtP2MomdoknfOVvHJDPLWtzTrdg.dSdqva4-vx1uGIoMe7Jw5TXobXKNKeH7TPnehirfRlk&amp;dib_tag=se&amp;keywords=Wire%2BHeat%2Bshrink&amp;qid=1747061876&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>24 AWG Stranded Hook-Up Wire (Twisted pair nice, but not required)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jameco-ValuePro-Stranded-Twisted-Hook-Up/dp/B0CQMSWVYY/ref=pd_lpo_d_sccl_1/140-7962179-5325123?pd_rd_w=QUkHw&amp;content-id=amzn1.sym.4c8c52db-06f8-4e42-8e56-912796f2ea6c&amp;pf_rd_p=4c8c52db-06f8-4e42-8e56-912796f2ea6c&amp;pf_rd_r=0JN7D3FTM14W9RJ5STJA&amp;pd_rd_wg=NTaSy&amp;pd_rd_r=8942b3b8-886a-4b1b-92a9-a41c0a80bb10&amp;pd_rd_i=B0CQMSWVYY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>*40 feet (12 m) total/robot (only 6 m needed if twisted pair)</t>
+  </si>
+  <si>
+    <t>Zip Ties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip Ties-8 inch </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hmrope-Premium-Plastic-Strength-Self-Locking/dp/B07TG9VMWY</t>
+  </si>
+  <si>
+    <t>*per robot (20 cm in length or similar)</t>
+  </si>
+  <si>
+    <t>Foam Bumpers</t>
+  </si>
+  <si>
+    <t>1/2 inch Foam Pipe Insulation - 6 feet long</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Insulation-Tubing-Guitar-Hollow-Protectors/dp/B0D21WRGLS/ref=sr_1_6?crid=1CSEOQ9XZ1WOO&amp;dib=eyJ2IjoiMSJ9.nxiSVHYA_bXC6eIpUQ5SydX4LG0tbfdflHbt3RG866DZddPyohNm7i7KRosQkH7BbSidvY_bsD--pHo8vv72wbdkw9qIrtiKrWeAxdH4n1c7_1TSJSFeKKOxgj6Kmab60PcWnDSdRWefs4uMX1foUjFOGRxJS4rCVf6vjljVR5uBTbGppyea7tjGCl9bt_XiEHXaWMSs5zXdnFAKvIB7ktuXSfzQj0IgQGZIViXrJ1Wwd9hXsieUwYqFaxVYyRk78-My1vvPEfHDhxIqb_kvp6uPyLekaohBv_utnAYvOsY.IJ5xgowY5TIHqctEIRl00ZLcC_Ew5tCO1tL3L8O7jQc&amp;dib_tag=se&amp;keywords=1%2F2%2Binch%2Bfoam%2Bpipe%2Binsulation%2B6%2Bft&amp;qid=1747178371&amp;sprefix=1%2F2%2Binch%2Bfoam%2Bpipe%2Binsulation%2B6%2Bft%2Caps%2C135&amp;sr=8-6&amp;th=1</t>
+  </si>
+  <si>
+    <t>*per robot (or similar foam like material for bumpers, ~2 meters needed per level)</t>
+  </si>
+  <si>
+    <t>Thin Sheets of Wood for platforms</t>
+  </si>
+  <si>
+    <t>1/8-1/4 inch (3-7mm) thick sheets of Duron wood (Tempered hardboard)</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Hardboard-Tempered-Panel-Common-1-8-in-4-ft-x-8-ft-Actual-0-115-in-x-47-7-in-x-95-7-in-832777/202189720</t>
+  </si>
+  <si>
+    <t>*m^2 per robot, other materials can be used as long as stiff enough and can be laser cut</t>
+  </si>
+  <si>
+    <t>PLA Plastic</t>
+  </si>
+  <si>
+    <t>PLA Filament For 3D Printer</t>
+  </si>
+  <si>
+    <t>*grams filament per robot</t>
   </si>
 </sst>
 </file>
@@ -152,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +526,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,12 +597,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -486,317 +896,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.68359375" customWidth="1"/>
+    <col min="4" max="4" width="7.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <f>29*2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5.5</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4">
-        <f>SUM(F2:F12)</f>
-        <v>95.5</v>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51">
+        <v>0.75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52">
+        <v>550</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A44:E44"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{31C23CB5-34AA-4098-BF96-69D3BD4C1292}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{48F9A34E-5952-4A05-A2AC-54EA8590386B}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{16E01F94-50EE-4680-A5BC-78B4B02B4B7E}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{C9F3E123-0834-4D93-91A1-6A0551EC7F1C}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{8F739283-135E-4CF3-B85C-5EB4771E9E1D}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{2CD393EA-D2D5-47F7-A72F-639D930B410C}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{EB2D2F47-126E-40B0-A5E0-01C620E7EE25}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{CF18584E-6595-4E2A-A83F-C05EF3A6127B}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{CC4B0CC5-7BFC-40AC-BAFB-5F0968F0FE78}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{8F35C917-26A2-4911-83A4-81FC367EA36D}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{A3AFCBE8-7BF2-4641-8593-56E5DF30EBA0}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{3C55859F-0961-4CEE-A9A1-7941BB6882F2}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{3AA3B4E9-3B90-4CDE-B1F0-B49B577882D8}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{0ACD73A9-7B6A-4AD2-A3F0-45D459E75F23}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{04474BA4-E4E0-42A7-AEC4-909513DAD8D6}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{A5D3B785-624E-4AFF-9880-279F1565E4DA}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{356530AB-4077-4FD9-B87E-8CCD54752F30}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{EA4246EA-B217-4E23-B035-75F13C9D10E7}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{5688E1DF-E55A-43C4-B70D-2611F83B26D0}"/>
+    <hyperlink ref="C26" r:id="rId15" xr:uid="{DF63E667-1317-477D-AA06-19F0EC96B524}"/>
+    <hyperlink ref="C27" r:id="rId16" xr:uid="{D064D999-2A3D-4312-B6E4-B772CD64E851}"/>
+    <hyperlink ref="C28" r:id="rId17" xr:uid="{0E31A6B4-CBA9-43E2-A08A-7A8800C09DD4}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{7F0B5706-994B-404D-ACD6-2D268BF3730C}"/>
+    <hyperlink ref="C35" r:id="rId19" xr:uid="{50D5C7D7-658E-4FA8-BBD6-02551A461FD7}"/>
+    <hyperlink ref="C33" r:id="rId20" xr:uid="{C42DC227-4AFD-40DE-BADB-FA44E1E54189}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{09EF24BE-105D-4EC1-AB4E-8E63ED536AF9}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{FEDB8A46-5AF3-42DC-B716-76AD3FC54588}"/>
+    <hyperlink ref="C41" r:id="rId23" xr:uid="{8C106029-0634-4389-AFF9-B8EE57215222}"/>
+    <hyperlink ref="C42" r:id="rId24" xr:uid="{BC57D762-C738-4660-8674-A67470EF2D56}"/>
+    <hyperlink ref="C40" r:id="rId25" display="https://www.amazon.com/BNUOK-M6-1-0-Socket-Stainless-Spanner/dp/B0DHKZJNLQ/ref=sr_1_4?crid=303DGFOWVXQ8X&amp;dib=eyJ2IjoiMSJ9.nMhMSOqdWcmGo8uP0Zt_LqbbgwrhkhoaAxBURzJYhlKNbvsySYKwbTS06vLZKGx_9k_TY4BafB-S7jIwDfnR7fJyDsKS2jqhnlwtBhyTHToyck5h7Olc8KC7mkGHWzTrKIWM8HV4yLCCKN4QfZ8P_cLv7Z4zCnbrxOBksccVg7oX0dsJWM_8tglboGI0uAkm2jSNGCppodeuJ7-VVTrXR1KlWiKSssbRw6kCBbRd60M.AfngxHHTdqm6mfJWmt1i8NDkZPJ_9Q6gpWshQYpA-zQ&amp;dib_tag=se&amp;keywords=m6%2B12%2Bmm%2Bscrew&amp;qid=1747259388&amp;sprefix=m6%2B12%2Bmm%2Bscre%2Caps%2C193&amp;sr=8-4&amp;th=1" xr:uid="{76619211-BF45-453C-8142-BA8719BBA090}"/>
+    <hyperlink ref="C39" r:id="rId26" display="https://www.amazon.com/Socket-Screws-Bolts-Thread-100pcs/dp/B07CMQ1SQH/ref=sr_1_3?crid=1WPLUYBASRAV7&amp;dib=eyJ2IjoiMSJ9.lpA37gEsAWAGdXyeclBlVl432s4NFIHfIqdKrFwhdtsYHURkxxqgsD-UEAaJY_It_KJWaEBIe49uhQW-o_DshimzUqJQ8wndLftTrB6oj2p092oQkXxsTdRN6GnLaC4YY4a_oIIGgtMPi12nICSGaEQQqmrKW4ykifWQJ4Mn3k89yDvMOLadK0L5upxZonIeZmtYsNXT2fHXvv5b73dCoGCCX8g5f9KapImXz5NjmOg.-cUyagWtVwvI0SVnTxCl6fuV66W4KS6887yDxr6upYw&amp;dib_tag=se&amp;keywords=m3%2B8%2Bmm%2Bscrew&amp;qid=1747259437&amp;sprefix=m3%2B8%2Bmm%2Bscre%2Caps%2C158&amp;sr=8-3&amp;th=1" xr:uid="{F9E181B9-B2B1-4571-928C-06161A0D1022}"/>
+    <hyperlink ref="C47" r:id="rId27" display="https://www.amazon.com/900Pcs-Shrink-Tubing-Industrial-Heat-Shrink/dp/B0B1D19LVW/ref=sr_1_4?dib=eyJ2IjoiMSJ9.kcQadkLjE2sg4d-h3SscvI39CMjXZy_xYANqNSSvouZVyo1FaoCP9l3qJPOxIYWB_YVlH57QW92oGL1YIMbepuYQPdi4u3CCj8Z0R1nryx1cG7G_3l5fqCObg0EGw6_4B3iaODtFfxsBS6GiKeoUilde5O2o_afYb57rVEiqbLlV1rO-SmD5NDASRBnYzCjmw-TEzrdC1BsIXTH2NtP2MomdoknfOVvHJDPLWtzTrdg.dSdqva4-vx1uGIoMe7Jw5TXobXKNKeH7TPnehirfRlk&amp;dib_tag=se&amp;keywords=Wire%2BHeat%2Bshrink&amp;qid=1747061876&amp;sr=8-4&amp;th=1" xr:uid="{A227B162-F912-4440-945E-B586B0C3C40B}"/>
+    <hyperlink ref="C48" r:id="rId28" display="https://www.amazon.com/Jameco-ValuePro-Stranded-Twisted-Hook-Up/dp/B0CQMSWVYY/ref=pd_lpo_d_sccl_1/140-7962179-5325123?pd_rd_w=QUkHw&amp;content-id=amzn1.sym.4c8c52db-06f8-4e42-8e56-912796f2ea6c&amp;pf_rd_p=4c8c52db-06f8-4e42-8e56-912796f2ea6c&amp;pf_rd_r=0JN7D3FTM14W9RJ5STJA&amp;pd_rd_wg=NTaSy&amp;pd_rd_r=8942b3b8-886a-4b1b-92a9-a41c0a80bb10&amp;pd_rd_i=B0CQMSWVYY&amp;psc=1" xr:uid="{01D9032B-663A-4C21-94D9-D5C01813EFDD}"/>
+    <hyperlink ref="C49" r:id="rId29" xr:uid="{AC8C2181-7D36-4468-8E16-6DB18004DF54}"/>
+    <hyperlink ref="C51" r:id="rId30" xr:uid="{46000FB1-6537-4044-B363-42A753E4FC5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AFCB8-C747-4115-BD5C-2BE967273B00}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="11.3125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56883C4-3A29-4079-BF6D-B1A523369228}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>